--- a/Report Components/Gantt Chart.xlsx
+++ b/Report Components/Gantt Chart.xlsx
@@ -123,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -145,6 +145,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -153,8 +154,322 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Project Timeline</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4285F4">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="5"/>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$23:$A$39</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$39</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$22</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$23:$A$39</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$C$39</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="2131983004"/>
+        <c:axId val="1196674356"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2131983004"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Task Name</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196674356"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1196674356"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2131983004"/>
+        <c:crosses val="max"/>
+        <c:majorUnit val="10.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40902815193965514"/>
+          <c:y val="0.11617405582922824"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9391650" cy="5800725"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,181 +979,238 @@
         <v>45028.0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="6">
-        <f t="shared" ref="B22:B38" si="1">INT(B2)-INT($B$2)</f>
         <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" ref="B23:B39" si="1">INT(B2)-INT($B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" ref="C23:C39" si="2">(INT(C2)-INT($B$2))-(INT(B2)-INT($B$2))
+</f>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="6">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="6">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="6">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="6">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="6">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="6">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C33" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="6">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="6">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="6">
         <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="C37" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C37" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="6">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C38" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B39" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C39" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Report Components/Gantt Chart.xlsx
+++ b/Report Components/Gantt Chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Task Name</t>
   </si>
@@ -56,15 +56,6 @@
   </si>
   <si>
     <t>Assemble extruder</t>
-  </si>
-  <si>
-    <t>Extrude filament from virgin PET pellets</t>
-  </si>
-  <si>
-    <t>Extrude filament from regrind PET pellets</t>
-  </si>
-  <si>
-    <t>Extrude filament from regrind PET flakes</t>
   </si>
   <si>
     <t>3D Print different shapes to assess printing abilities</t>
@@ -256,11 +247,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2131983004"/>
-        <c:axId val="1196674356"/>
+        <c:axId val="339352411"/>
+        <c:axId val="127200590"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131983004"/>
+        <c:axId val="339352411"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -312,10 +303,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1196674356"/>
+        <c:crossAx val="127200590"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1196674356"/>
+        <c:axId val="127200590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,7 +381,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131983004"/>
+        <c:crossAx val="339352411"/>
         <c:crosses val="max"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
@@ -447,11 +438,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9391650" cy="5800725"/>
+    <xdr:ext cx="9086850" cy="5610225"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
@@ -834,7 +825,7 @@
         <v>44963.0</v>
       </c>
       <c r="C10" s="3">
-        <v>44986.0</v>
+        <v>45005.0</v>
       </c>
       <c r="E10" s="4">
         <v>44963.0</v>
@@ -851,7 +842,7 @@
         <v>44966.0</v>
       </c>
       <c r="C11" s="3">
-        <v>44968.0</v>
+        <v>45016.0</v>
       </c>
       <c r="E11" s="4">
         <v>44966.0</v>
@@ -868,7 +859,7 @@
         <v>44986.0</v>
       </c>
       <c r="C12" s="3">
-        <v>44995.0</v>
+        <v>45026.0</v>
       </c>
       <c r="E12" s="4">
         <v>44986.0</v>
@@ -882,10 +873,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="5">
-        <v>45005.0</v>
+        <v>45031.0</v>
       </c>
       <c r="C13" s="3">
-        <v>45019.0</v>
+        <v>45034.0</v>
       </c>
       <c r="E13" s="4">
         <v>45005.0</v>
@@ -895,15 +886,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5">
-        <v>45019.0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>45023.0</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
       <c r="E14" s="4">
         <v>45019.0</v>
       </c>
@@ -912,15 +896,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5">
-        <v>45019.0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>45023.0</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
       <c r="E15" s="4">
         <v>45019.0</v>
       </c>
@@ -929,15 +906,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5">
-        <v>45019.0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45023.0</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
       <c r="E16" s="4">
         <v>45019.0</v>
       </c>
@@ -947,13 +917,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>45020.0</v>
+        <v>45034.0</v>
       </c>
       <c r="C17" s="3">
-        <v>45024.0</v>
+        <v>45035.0</v>
       </c>
       <c r="E17" s="4">
         <v>45020.0</v>
@@ -964,13 +934,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>45026.0</v>
+        <v>45034.0</v>
       </c>
       <c r="C18" s="3">
-        <v>45028.0</v>
+        <v>45035.0</v>
       </c>
       <c r="E18" s="4">
         <v>45026.0</v>
@@ -987,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -995,11 +965,11 @@
         <v>3</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" ref="B23:B39" si="1">INT(B2)-INT($B$2)</f>
+        <f t="shared" ref="B23:B34" si="1">INT(B2)-INT($B$2)</f>
         <v>0</v>
       </c>
       <c r="C23" s="7">
-        <f t="shared" ref="C23:C39" si="2">(INT(C2)-INT($B$2))-(INT(B2)-INT($B$2))
+        <f t="shared" ref="C23:C34" si="2">(INT(C2)-INT($B$2))-(INT(B2)-INT($B$2))
 </f>
         <v>11</v>
       </c>
@@ -1105,7 +1075,7 @@
       </c>
       <c r="C31" s="7">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -1118,7 +1088,7 @@
       </c>
       <c r="C32" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -1131,7 +1101,7 @@
       </c>
       <c r="C33" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -1140,76 +1110,47 @@
       </c>
       <c r="B34" s="6">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="6">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="C35" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
+      <c r="B35" s="6"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="6">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="C36" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
+      <c r="B36" s="6"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="6">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="C37" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
+      <c r="B37" s="6"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B38" s="6">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f t="shared" ref="B38:B39" si="3">INT(B17)-INT($B$2)</f>
+        <v>99</v>
       </c>
       <c r="C38" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" ref="C38:C39" si="4">(INT(C17)-INT($B$2))-(INT(B17)-INT($B$2))
+</f>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B39" s="6">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <f t="shared" si="3"/>
+        <v>99</v>
       </c>
       <c r="C39" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
